--- a/URS/DbLayouts/L5-管理性作業/NegFinShare.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/NegFinShare.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.16\St1Share(NAS)\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D740724-9D2B-4F85-AF7A-99F5F7D74529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -198,46 +199,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FindAllFinCode</t>
+    <t>債務人戶號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>債權機構</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>簽約金額</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>債權比例% </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>期款</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>註銷日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>註銷本金</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecimalD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFinCodeAll</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>債務人戶號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>債權機構</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>簽約金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>債權比例% </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>期款</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>註銷日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>註銷本金</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DecimalD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -490,7 +491,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,6 +582,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -616,6 +634,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -791,11 +826,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -927,7 +962,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>27</v>
@@ -968,7 +1003,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>38</v>
@@ -987,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>27</v>
@@ -1008,7 +1043,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>27</v>
@@ -1029,7 +1064,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>27</v>
@@ -1050,10 +1085,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="23">
         <v>8</v>
@@ -1069,7 +1104,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>27</v>
@@ -1166,12 +1201,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1195,7 +1230,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
